--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2803109.268267659</v>
+        <v>-2806060.404608923</v>
       </c>
     </row>
     <row r="7">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.681034879074153</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.25644938781289</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>14.25644938781289</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>14.25644938781289</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>5.681034879074153</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.25644938781289</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>14.25644938781289</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>12.55708062078559</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>14.25644938781289</v>
       </c>
       <c r="X6" t="n">
         <v>14.25644938781289</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.25644938781289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,23 +1096,23 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.25644938781289</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.55708062078559</v>
+      </c>
+      <c r="T7" t="n">
         <v>14.25644938781289</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>14.25644938781289</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>14.25644938781289</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.55708062078559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>158.0889111548629</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V8" t="n">
-        <v>239.8079481415046</v>
+        <v>191.4298910353889</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>189.0892624177843</v>
       </c>
       <c r="Y9" t="n">
-        <v>97.3428113328757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>1.948228754745772</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>103.2729538446556</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>346.2635828829768</v>
       </c>
       <c r="G11" t="n">
         <v>410.1644063769637</v>
       </c>
       <c r="H11" t="n">
-        <v>238.8047027916298</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.93034877516573</v>
+        <v>91.93034877516574</v>
       </c>
       <c r="T11" t="n">
         <v>200.6028050067863</v>
@@ -1464,10 +1464,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H12" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>80.41527379555095</v>
+        <v>80.41527379555048</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.65767465442973</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S13" t="n">
         <v>183.8488525946973</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.3534632974256</v>
+        <v>370.3534632974255</v>
       </c>
       <c r="C14" t="n">
-        <v>352.8925134049526</v>
+        <v>352.8925134049525</v>
       </c>
       <c r="D14" t="n">
-        <v>342.302663254628</v>
+        <v>342.3026632546279</v>
       </c>
       <c r="E14" t="n">
         <v>369.5499917062068</v>
       </c>
       <c r="F14" t="n">
-        <v>125.2781315694285</v>
+        <v>125.2781315694311</v>
       </c>
       <c r="G14" t="n">
         <v>397.7840280109087</v>
       </c>
       <c r="H14" t="n">
-        <v>274.4714899809149</v>
+        <v>274.4714899809148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.54997040911076</v>
+        <v>79.54997040911071</v>
       </c>
       <c r="T14" t="n">
         <v>188.2224266407313</v>
@@ -1670,7 +1670,7 @@
         <v>336.860590351358</v>
       </c>
       <c r="X14" t="n">
-        <v>357.3507223124141</v>
+        <v>357.350722312414</v>
       </c>
       <c r="Y14" t="n">
         <v>373.8575602899986</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>167.4516018158823</v>
       </c>
       <c r="C16" t="n">
-        <v>154.8664427325729</v>
+        <v>154.8664427325728</v>
       </c>
       <c r="D16" t="n">
-        <v>136.2350946521574</v>
+        <v>14.94473595460137</v>
       </c>
       <c r="E16" t="n">
-        <v>11.75031095931938</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.0406696568762</v>
       </c>
       <c r="G16" t="n">
-        <v>153.3057225371872</v>
+        <v>153.3057225371871</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>61.27729628837476</v>
+        <v>61.27729628837473</v>
       </c>
       <c r="S16" t="n">
         <v>171.4684742286423</v>
       </c>
       <c r="T16" t="n">
-        <v>205.717094026301</v>
+        <v>205.7170940263009</v>
       </c>
       <c r="U16" t="n">
         <v>273.8129303474241</v>
@@ -1828,7 +1828,7 @@
         <v>274.142619970536</v>
       </c>
       <c r="X16" t="n">
-        <v>213.3292770229822</v>
+        <v>213.3292770229821</v>
       </c>
       <c r="Y16" t="n">
         <v>206.2042749860398</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187924</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.5262913945334</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247487</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139452966</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.124505344303</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612655</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112645</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
         <v>135.6366187464139</v>
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295167</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645686</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.124505344303</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453001</v>
+        <v>54.52629139452955</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
         <v>378.5542040247498</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
@@ -3092,7 +3092,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612642</v>
+        <v>254.5831063612657</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112663</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187936</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038391</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453073</v>
+        <v>54.52629139452983</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,10 +3512,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3597,10 +3597,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H39" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D40" t="n">
         <v>117.0052706659984</v>
@@ -3673,13 +3673,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H40" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221648</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612657</v>
+        <v>254.5831063612646</v>
       </c>
       <c r="V40" t="n">
         <v>220.527440971614</v>
@@ -3724,7 +3724,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998808</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947548</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038391</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H42" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3952,7 +3952,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3986,10 +3986,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4071,10 +4071,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453009</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4189,7 +4189,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V46" t="n">
         <v>220.527440971614</v>
@@ -4574,7 +4574,7 @@
         <v>1.140515951025032</v>
       </c>
       <c r="M5" t="n">
-        <v>1.140515951025032</v>
+        <v>14.68414286944728</v>
       </c>
       <c r="N5" t="n">
         <v>14.68414286944728</v>
@@ -4589,13 +4589,13 @@
         <v>57.02579755125157</v>
       </c>
       <c r="R5" t="n">
-        <v>57.02579755125157</v>
+        <v>42.62534362416784</v>
       </c>
       <c r="S5" t="n">
         <v>42.62534362416784</v>
       </c>
       <c r="T5" t="n">
-        <v>42.62534362416784</v>
+        <v>28.22488969708411</v>
       </c>
       <c r="U5" t="n">
         <v>28.22488969708411</v>
@@ -4607,10 +4607,10 @@
         <v>28.22488969708411</v>
       </c>
       <c r="X5" t="n">
-        <v>28.22488969708411</v>
+        <v>22.48647062731224</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.22488969708411</v>
+        <v>22.48647062731224</v>
       </c>
     </row>
     <row r="6">
@@ -4668,10 +4668,10 @@
         <v>57.02579755125157</v>
       </c>
       <c r="R6" t="n">
-        <v>57.02579755125157</v>
+        <v>42.62534362416784</v>
       </c>
       <c r="S6" t="n">
-        <v>57.02579755125157</v>
+        <v>42.62534362416784</v>
       </c>
       <c r="T6" t="n">
         <v>42.62534362416784</v>
@@ -4683,10 +4683,10 @@
         <v>29.94142380519249</v>
       </c>
       <c r="W6" t="n">
-        <v>29.94142380519249</v>
+        <v>15.54096987810876</v>
       </c>
       <c r="X6" t="n">
-        <v>15.54096987810876</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="Y6" t="n">
         <v>1.140515951025032</v>
@@ -4729,13 +4729,13 @@
         <v>1.140515951025032</v>
       </c>
       <c r="L7" t="n">
-        <v>1.140515951025032</v>
+        <v>15.25440084495979</v>
       </c>
       <c r="M7" t="n">
-        <v>14.68414286944728</v>
+        <v>28.79802776338204</v>
       </c>
       <c r="N7" t="n">
-        <v>28.79802776338204</v>
+        <v>42.9119126573168</v>
       </c>
       <c r="O7" t="n">
         <v>42.9119126573168</v>
@@ -4744,28 +4744,28 @@
         <v>57.02579755125157</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.02579755125157</v>
+        <v>42.62534362416784</v>
       </c>
       <c r="R7" t="n">
         <v>42.62534362416784</v>
       </c>
       <c r="S7" t="n">
-        <v>28.22488969708411</v>
+        <v>29.94142380519249</v>
       </c>
       <c r="T7" t="n">
-        <v>28.22488969708411</v>
+        <v>15.54096987810876</v>
       </c>
       <c r="U7" t="n">
-        <v>13.82443577000038</v>
+        <v>15.54096987810876</v>
       </c>
       <c r="V7" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="W7" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="X7" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="Y7" t="n">
         <v>1.140515951025032</v>
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318.5562537668775</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="C8" t="n">
-        <v>158.8704849235816</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="D8" t="n">
-        <v>158.8704849235816</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="E8" t="n">
-        <v>158.8704849235816</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="F8" t="n">
-        <v>151.9249841743781</v>
+        <v>32.23201357448885</v>
       </c>
       <c r="G8" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H8" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I8" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J8" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470348</v>
       </c>
       <c r="K8" t="n">
         <v>122.9820404192956</v>
@@ -4814,40 +4814,40 @@
         <v>449.0101090859557</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779379</v>
+        <v>643.3443219779377</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948972</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444234</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.2317925660183</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S8" t="n">
-        <v>803.0167550628464</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="T8" t="n">
-        <v>803.0167550628464</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="U8" t="n">
-        <v>803.0167550628464</v>
+        <v>717.0015419180338</v>
       </c>
       <c r="V8" t="n">
-        <v>560.786504414862</v>
+        <v>523.6380156196611</v>
       </c>
       <c r="W8" t="n">
-        <v>560.786504414862</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="X8" t="n">
-        <v>560.786504414862</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="Y8" t="n">
-        <v>318.5562537668775</v>
+        <v>281.4077649716767</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.18463585132037</v>
+        <v>193.6376651324474</v>
       </c>
       <c r="C9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K9" t="n">
         <v>86.79245551467723</v>
@@ -4902,31 +4902,31 @@
         <v>870.378071733699</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R9" t="n">
-        <v>938.1198929682051</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S9" t="n">
-        <v>788.6531038308399</v>
+        <v>809.7650034286529</v>
       </c>
       <c r="T9" t="n">
-        <v>788.6531038308399</v>
+        <v>612.7757075887405</v>
       </c>
       <c r="U9" t="n">
-        <v>560.5143163420057</v>
+        <v>384.6369200999063</v>
       </c>
       <c r="V9" t="n">
-        <v>325.362208110263</v>
+        <v>384.6369200999063</v>
       </c>
       <c r="W9" t="n">
-        <v>325.362208110263</v>
+        <v>384.6369200999063</v>
       </c>
       <c r="X9" t="n">
-        <v>117.5107079047302</v>
+        <v>193.6376651324474</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.18463585132037</v>
+        <v>193.6376651324474</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K10" t="n">
-        <v>60.34504070228402</v>
+        <v>60.3450407022838</v>
       </c>
       <c r="L10" t="n">
-        <v>245.1780356031023</v>
+        <v>245.178035603102</v>
       </c>
       <c r="M10" t="n">
-        <v>450.4476363223401</v>
+        <v>450.4476363223399</v>
       </c>
       <c r="N10" t="n">
-        <v>656.2710011584443</v>
+        <v>656.2710011584441</v>
       </c>
       <c r="O10" t="n">
-        <v>830.365896547043</v>
+        <v>830.3658965470428</v>
       </c>
       <c r="P10" t="n">
-        <v>955.8134731456586</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R10" t="n">
-        <v>828.753831285421</v>
+        <v>957.2638847329416</v>
       </c>
       <c r="S10" t="n">
-        <v>828.753831285421</v>
+        <v>957.2638847329416</v>
       </c>
       <c r="T10" t="n">
-        <v>724.4377162908194</v>
+        <v>731.6346880453066</v>
       </c>
       <c r="U10" t="n">
-        <v>482.2074656428349</v>
+        <v>489.4044373973221</v>
       </c>
       <c r="V10" t="n">
-        <v>482.2074656428349</v>
+        <v>489.4044373973221</v>
       </c>
       <c r="W10" t="n">
-        <v>239.9772149948505</v>
+        <v>247.1741867493377</v>
       </c>
       <c r="X10" t="n">
-        <v>239.9772149948505</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="11">
@@ -5024,46 +5024,46 @@
         <v>1138.798446961894</v>
       </c>
       <c r="E11" t="n">
-        <v>753.01019436365</v>
+        <v>1138.798446961894</v>
       </c>
       <c r="F11" t="n">
-        <v>753.01019436365</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G11" t="n">
-        <v>338.7027131747978</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H11" t="n">
-        <v>97.48584166810102</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O11" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S11" t="n">
         <v>4156.161510599077</v>
@@ -5112,22 +5112,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J12" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K12" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L12" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448922</v>
       </c>
       <c r="M12" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N12" t="n">
         <v>1428.524759781583</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>335.1441411914584</v>
+        <v>335.1441411914579</v>
       </c>
       <c r="C13" t="n">
-        <v>166.2079582635515</v>
+        <v>166.207958263551</v>
       </c>
       <c r="D13" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="E13" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="F13" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="G13" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="H13" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J13" t="n">
         <v>153.8801783755866</v>
       </c>
       <c r="K13" t="n">
-        <v>396.9405013869776</v>
+        <v>396.9405013869775</v>
       </c>
       <c r="L13" t="n">
-        <v>763.5004667042033</v>
+        <v>763.5004667042031</v>
       </c>
       <c r="M13" t="n">
         <v>1160.375677726126</v>
@@ -5218,16 +5218,16 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q13" t="n">
-        <v>2279.168624967671</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="R13" t="n">
         <v>2204.76693339754</v>
       </c>
       <c r="S13" t="n">
-        <v>2019.061021685725</v>
+        <v>2019.061021685724</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.760544521729</v>
+        <v>1798.760544521728</v>
       </c>
       <c r="U13" t="n">
         <v>1509.676394306093</v>
@@ -5236,13 +5236,13 @@
         <v>1254.991906100206</v>
       </c>
       <c r="W13" t="n">
-        <v>965.5747360632456</v>
+        <v>965.5747360632452</v>
       </c>
       <c r="X13" t="n">
-        <v>737.5851851652283</v>
+        <v>737.5851851652278</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.7926060216981</v>
+        <v>516.7926060216977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.070124052934</v>
+        <v>1966.070124052936</v>
       </c>
       <c r="C14" t="n">
-        <v>1609.613039805507</v>
+        <v>1609.61303980551</v>
       </c>
       <c r="D14" t="n">
-        <v>1263.852773891741</v>
+        <v>1263.852773891744</v>
       </c>
       <c r="E14" t="n">
-        <v>890.569953986482</v>
+        <v>890.5699539864845</v>
       </c>
       <c r="F14" t="n">
-        <v>764.026386744635</v>
+        <v>764.0263867446349</v>
       </c>
       <c r="G14" t="n">
         <v>362.2243382487676</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5291,37 +5291,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
         <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S14" t="n">
-        <v>4168.666943292061</v>
+        <v>4168.666943292063</v>
       </c>
       <c r="T14" t="n">
-        <v>3978.543280018595</v>
+        <v>3978.543280018597</v>
       </c>
       <c r="U14" t="n">
-        <v>3737.579433502708</v>
+        <v>3737.57943350271</v>
       </c>
       <c r="V14" t="n">
-        <v>3419.021978852122</v>
+        <v>3419.021978852124</v>
       </c>
       <c r="W14" t="n">
-        <v>3078.758756274993</v>
+        <v>3078.758756274995</v>
       </c>
       <c r="X14" t="n">
-        <v>2717.798430706898</v>
+        <v>2717.7984307069</v>
       </c>
       <c r="Y14" t="n">
-        <v>2340.164531424071</v>
+        <v>2340.164531424073</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L15" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448922</v>
       </c>
       <c r="M15" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N15" t="n">
         <v>1428.524759781583</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.7456320874767</v>
+        <v>545.7456320874774</v>
       </c>
       <c r="C16" t="n">
-        <v>389.3148818525545</v>
+        <v>389.3148818525553</v>
       </c>
       <c r="D16" t="n">
-        <v>251.7036751332036</v>
+        <v>374.2191889691196</v>
       </c>
       <c r="E16" t="n">
-        <v>239.8346741641942</v>
+        <v>374.2191889691196</v>
       </c>
       <c r="F16" t="n">
-        <v>239.8346741641942</v>
+        <v>239.8346741641941</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J16" t="n">
         <v>166.1367529579811</v>
       </c>
       <c r="K16" t="n">
-        <v>421.4536505517664</v>
+        <v>421.4536505517665</v>
       </c>
       <c r="L16" t="n">
-        <v>800.2701904513865</v>
+        <v>800.2701904513866</v>
       </c>
       <c r="M16" t="n">
         <v>1209.401976055704</v>
@@ -5461,25 +5461,25 @@
         <v>2315.32496274968</v>
       </c>
       <c r="S16" t="n">
-        <v>2142.124483730849</v>
+        <v>2142.12448373085</v>
       </c>
       <c r="T16" t="n">
         <v>1934.329439259838</v>
       </c>
       <c r="U16" t="n">
-        <v>1657.750721737187</v>
+        <v>1657.750721737188</v>
       </c>
       <c r="V16" t="n">
-        <v>1415.571666224285</v>
+        <v>1415.571666224286</v>
       </c>
       <c r="W16" t="n">
-        <v>1138.659928880309</v>
+        <v>1138.65992888031</v>
       </c>
       <c r="X16" t="n">
-        <v>923.1758106752768</v>
+        <v>923.1758106752775</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.8886642247315</v>
+        <v>714.8886642247322</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5531,25 +5531,25 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437413</v>
@@ -5558,7 +5558,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5586,22 +5586,22 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448922</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N18" t="n">
         <v>1428.524759781583</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502127</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477745</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609075</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039832</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315416</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749475</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897964</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216581</v>
@@ -5738,22 +5738,22 @@
         <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,22 +5762,22 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283564</v>
@@ -5795,7 +5795,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448914</v>
+        <v>538.7790385694435</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N21" t="n">
         <v>1428.524759781583</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5929,28 +5929,28 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,22 +5975,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162837</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6011,28 +6011,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,19 +6060,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694436</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M24" t="n">
         <v>850.6694118551806</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502127</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477745</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609075</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039832</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315416</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749475</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313936</v>
@@ -6166,31 +6166,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357086</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645594</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,64 +6212,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951443</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050962</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="27">
@@ -6297,16 +6297,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="L27" t="n">
         <v>301.7509472448914</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
         <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749443</v>
@@ -6379,16 +6379,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6412,19 +6412,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6534,16 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L30" t="n">
         <v>301.7509472448914</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502127</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477745</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609075</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039832</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315416</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749475</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897925</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612703</v>
@@ -6780,10 +6780,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694436</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M33" t="n">
         <v>850.6694118551806</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749443</v>
@@ -6856,46 +6856,46 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073043</v>
@@ -6935,19 +6935,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -7020,10 +7020,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448914</v>
+        <v>538.7790385694436</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N36" t="n">
         <v>1428.524759781583</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477725</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.684995803981</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315393</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897937</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7123,22 +7123,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7172,13 +7172,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,10 +7187,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7199,16 +7199,16 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
@@ -7257,10 +7257,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448914</v>
+        <v>538.7790385694435</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N39" t="n">
         <v>1428.524759781583</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315384</v>
@@ -7324,19 +7324,19 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7345,22 +7345,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237501</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162828</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448914</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448914</v>
+        <v>841.8200879193078</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N42" t="n">
         <v>1428.524759781583</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C43" t="n">
         <v>735.8557341477717</v>
@@ -7558,22 +7558,22 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443606</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7591,10 +7591,10 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127668</v>
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162828</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511527</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233287</v>
@@ -7667,16 +7667,16 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400161</v>
@@ -7685,7 +7685,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X44" t="n">
         <v>2834.342818501802</v>
@@ -7722,19 +7722,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511622</v>
+        <v>301.7509472448922</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>301.7509472448922</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>850.6694118551811</v>
       </c>
       <c r="N45" t="n">
         <v>1428.524759781583</v>
@@ -7801,25 +7801,25 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
         <v>2392.455631028688</v>
@@ -7828,16 +7828,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -7846,7 +7846,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>144.9092478933116</v>
+        <v>144.9092478933106</v>
       </c>
       <c r="K2" t="n">
-        <v>165.9303702134203</v>
+        <v>165.9303702134189</v>
       </c>
       <c r="L2" t="n">
-        <v>168.5767898895439</v>
+        <v>168.5767898895421</v>
       </c>
       <c r="M2" t="n">
-        <v>155.5848292705128</v>
+        <v>155.5848292705108</v>
       </c>
       <c r="N2" t="n">
-        <v>153.4419419631691</v>
+        <v>153.4419419631672</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3608355506252</v>
+        <v>158.3608355506233</v>
       </c>
       <c r="P2" t="n">
-        <v>170.006805152167</v>
+        <v>170.0068051521654</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.3273705587913</v>
+        <v>176.3273705587901</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>105.3148815367102</v>
+        <v>105.3148815367096</v>
       </c>
       <c r="K3" t="n">
-        <v>101.0556394548562</v>
+        <v>101.0556394548552</v>
       </c>
       <c r="L3" t="n">
-        <v>89.09133267628113</v>
+        <v>89.09133267627982</v>
       </c>
       <c r="M3" t="n">
-        <v>84.41299097333496</v>
+        <v>84.41299097333342</v>
       </c>
       <c r="N3" t="n">
-        <v>72.09296488212203</v>
+        <v>72.09296488212046</v>
       </c>
       <c r="O3" t="n">
-        <v>88.39521593765498</v>
+        <v>88.39521593765355</v>
       </c>
       <c r="P3" t="n">
-        <v>90.47330359055013</v>
+        <v>90.47330359054898</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.9024382027174</v>
+        <v>110.9024382027166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>106.4903331805384</v>
+        <v>106.4903331805376</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9879303285903</v>
+        <v>108.9879303285895</v>
       </c>
       <c r="N4" t="n">
-        <v>98.45954609088554</v>
+        <v>98.45954609088476</v>
       </c>
       <c r="O4" t="n">
-        <v>111.4615985882203</v>
+        <v>111.4615985882196</v>
       </c>
       <c r="P4" t="n">
-        <v>114.6291694758499</v>
+        <v>114.6291694758493</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8222,10 +8222,10 @@
         <v>70.65430131759652</v>
       </c>
       <c r="M5" t="n">
-        <v>46.62719309061671</v>
+        <v>60.30762432134625</v>
       </c>
       <c r="N5" t="n">
-        <v>56.40168854891036</v>
+        <v>42.72125731818082</v>
       </c>
       <c r="O5" t="n">
         <v>68.06688209714918</v>
@@ -8377,7 +8377,7 @@
         <v>74.48578089249756</v>
       </c>
       <c r="L7" t="n">
-        <v>65.1082785187163</v>
+        <v>79.3647279065292</v>
       </c>
       <c r="M7" t="n">
         <v>79.03678711063458</v>
@@ -8386,7 +8386,7 @@
         <v>70.12188234903893</v>
       </c>
       <c r="O7" t="n">
-        <v>86.37549044380806</v>
+        <v>72.11904105599517</v>
       </c>
       <c r="P7" t="n">
         <v>95.22126425800784</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.78462588923487</v>
+        <v>66.78462588923465</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,7 +8611,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>46.2513171076363</v>
+        <v>46.25131710763608</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-5.007018097672086e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.49699814319079</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.87696798529367</v>
+        <v>14.87696798529366</v>
       </c>
       <c r="H2" t="n">
-        <v>335.1143899182791</v>
+        <v>335.114389918279</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>199.3178464249849</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2320434472507</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3115913454492</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>195.1636664838046</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,19 +22714,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>160.5291373140628</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>79.85650148794899</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>168.7059864012575</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3086119626665</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>60.61246285873466</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>48.04716555534009</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.20019922266141</v>
+        <v>68.20019922266188</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>141.7347076965137</v>
       </c>
       <c r="I13" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>269.2175358062279</v>
+        <v>269.2175358062253</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.290358697556</v>
       </c>
       <c r="E16" t="n">
-        <v>122.3032733211948</v>
+        <v>134.0535842805141</v>
       </c>
       <c r="F16" t="n">
-        <v>133.0406696568763</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>129.3543293304587</v>
+        <v>129.3543293304586</v>
       </c>
       <c r="I16" t="n">
-        <v>73.7561153806891</v>
+        <v>73.75611538068905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.242073289278958e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.301817925496711e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.424815986363683e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102056.4171723113</v>
+        <v>102056.417172314</v>
       </c>
       <c r="C3" t="n">
-        <v>145160.9030145631</v>
+        <v>145160.9030145606</v>
       </c>
       <c r="D3" t="n">
         <v>355430.4227350045</v>
       </c>
       <c r="E3" t="n">
-        <v>795641.6244428754</v>
+        <v>795641.6244428752</v>
       </c>
       <c r="F3" t="n">
-        <v>9904.302692843976</v>
+        <v>9904.302692844021</v>
       </c>
       <c r="G3" t="n">
-        <v>15383.85918892728</v>
+        <v>15383.85918892714</v>
       </c>
       <c r="H3" t="n">
-        <v>2.606111593195238e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>9.379164112033322e-11</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>13573.4565588866</v>
+        <v>13573.45655888674</v>
       </c>
       <c r="L3" t="n">
-        <v>72468.91355999788</v>
+        <v>72468.91355999773</v>
       </c>
       <c r="M3" t="n">
-        <v>204957.1230692801</v>
+        <v>204957.1230692802</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9904.302692844223</v>
+        <v>9904.302692844032</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>304175.7685799336</v>
+        <v>304175.768579933</v>
       </c>
       <c r="C4" t="n">
         <v>357252.3672743735</v>
       </c>
       <c r="D4" t="n">
-        <v>255177.1421685145</v>
+        <v>255177.1421685146</v>
       </c>
       <c r="E4" t="n">
         <v>8669.990103765376</v>
       </c>
       <c r="F4" t="n">
-        <v>21180.92852005956</v>
+        <v>21180.92852005964</v>
       </c>
       <c r="G4" t="n">
+        <v>39739.87518598543</v>
+      </c>
+      <c r="H4" t="n">
+        <v>39739.8751859855</v>
+      </c>
+      <c r="I4" t="n">
         <v>39739.87518598553</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>39739.87518598553</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39739.87518598541</v>
+      </c>
+      <c r="L4" t="n">
+        <v>39739.87518598545</v>
+      </c>
+      <c r="M4" t="n">
         <v>39739.87518598542</v>
       </c>
-      <c r="I4" t="n">
-        <v>39739.87518598547</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39739.87518598544</v>
-      </c>
-      <c r="K4" t="n">
-        <v>39739.87518598553</v>
-      </c>
-      <c r="L4" t="n">
-        <v>39739.87518598542</v>
-      </c>
-      <c r="M4" t="n">
-        <v>39739.87518598547</v>
-      </c>
       <c r="N4" t="n">
-        <v>39739.87518598549</v>
+        <v>39739.87518598551</v>
       </c>
       <c r="O4" t="n">
         <v>39739.87518598547</v>
       </c>
       <c r="P4" t="n">
-        <v>39739.87518598548</v>
+        <v>39739.8751859855</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35936.44171794733</v>
+        <v>35936.4417179474</v>
       </c>
       <c r="C5" t="n">
         <v>40168.15106521523</v>
       </c>
       <c r="D5" t="n">
-        <v>61145.70223437329</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="E5" t="n">
         <v>92448.99600060697</v>
       </c>
       <c r="F5" t="n">
-        <v>93489.80202946285</v>
+        <v>93489.80202946287</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="H5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-442168.6274701921</v>
+        <v>-442555.0479412925</v>
       </c>
       <c r="C6" t="n">
-        <v>-542581.4213541518</v>
+        <v>-542581.4213541494</v>
       </c>
       <c r="D6" t="n">
-        <v>-671753.2671378924</v>
+        <v>-671753.2671378923</v>
       </c>
       <c r="E6" t="n">
-        <v>-896760.6105472478</v>
+        <v>-896896.35701703</v>
       </c>
       <c r="F6" t="n">
-        <v>-124575.0332423664</v>
+        <v>-124656.1147952533</v>
       </c>
       <c r="G6" t="n">
-        <v>-150230.1684770681</v>
+        <v>-150230.1684770678</v>
       </c>
       <c r="H6" t="n">
         <v>-134846.3092881407</v>
       </c>
       <c r="I6" t="n">
-        <v>-134846.3092881408</v>
+        <v>-134846.3092881409</v>
       </c>
       <c r="J6" t="n">
         <v>-134846.3092881407</v>
@@ -26549,19 +26549,19 @@
         <v>-148419.7658470274</v>
       </c>
       <c r="L6" t="n">
-        <v>-207315.2228481386</v>
+        <v>-207315.2228481385</v>
       </c>
       <c r="M6" t="n">
         <v>-339803.4323574209</v>
       </c>
       <c r="N6" t="n">
-        <v>-134846.3092881408</v>
+        <v>-134846.3092881409</v>
       </c>
       <c r="O6" t="n">
-        <v>-134846.3092881407</v>
+        <v>-134846.3092881406</v>
       </c>
       <c r="P6" t="n">
-        <v>-144750.611980985</v>
+        <v>-144750.6119809848</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="I2" t="n">
         <v>31.61020235221406</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221406</v>
-      </c>
       <c r="L2" t="n">
+        <v>31.61020235221396</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221393</v>
       </c>
-      <c r="M2" t="n">
-        <v>31.61020235221397</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9101705480429</v>
+        <v>105.9101705480457</v>
       </c>
       <c r="C3" t="n">
         <v>260.2641716713856</v>
@@ -26793,16 +26793,16 @@
         <v>14.25644938781289</v>
       </c>
       <c r="D4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="E4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188953</v>
@@ -26811,10 +26811,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
+        <v>1062.255112188952</v>
+      </c>
+      <c r="K4" t="n">
         <v>1062.255112188953</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1062.255112188952</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26917,37 +26917,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="G2" t="n">
-        <v>19.22982398615909</v>
+        <v>19.22982398615892</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>12.38037836605512</v>
+        <v>12.380378366055</v>
       </c>
       <c r="L2" t="n">
-        <v>19.22982398615897</v>
+        <v>19.22982398615895</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.811883976188255e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-1.527666881884215e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>12.38037836605514</v>
+        <v>12.38037836605504</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9101705480429</v>
+        <v>105.9101705480457</v>
       </c>
       <c r="C3" t="n">
-        <v>154.3540011233427</v>
+        <v>154.3540011233399</v>
       </c>
       <c r="D3" t="n">
         <v>333.211928666679</v>
       </c>
       <c r="E3" t="n">
-        <v>684.6837702820582</v>
+        <v>684.6837702820579</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>14.25644938781289</v>
       </c>
       <c r="D4" t="n">
-        <v>225.5514987536917</v>
+        <v>225.5514987536916</v>
       </c>
       <c r="E4" t="n">
-        <v>822.4471640474478</v>
+        <v>822.447164047448</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.25644938781244</v>
+        <v>14.25644938781335</v>
       </c>
       <c r="L4" t="n">
-        <v>225.5514987536922</v>
+        <v>225.5514987536916</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474478</v>
+        <v>822.447164047448</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27154,22 +27154,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="L2" t="n">
-        <v>19.22982398615909</v>
+        <v>19.22982398615892</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>12.38037836605512</v>
+        <v>12.380378366055</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>14.25644938781289</v>
       </c>
       <c r="L4" t="n">
-        <v>225.5514987536917</v>
+        <v>225.5514987536916</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474478</v>
+        <v>822.447164047448</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.2368435202898</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>194.0614097711962</v>
+        <v>194.0614097711957</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>123.1238727122512</v>
+        <v>123.1238727122505</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>199.3178464249847</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2320434472507</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3115913454492</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>154.0773022336084</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>110.0353103162437</v>
       </c>
       <c r="I3" t="n">
-        <v>81.55328531554586</v>
+        <v>81.55328531554565</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>86.0138306217177</v>
+        <v>86.01383062171733</v>
       </c>
       <c r="S3" t="n">
-        <v>167.4517600446778</v>
+        <v>167.4517600446777</v>
       </c>
       <c r="T3" t="n">
         <v>199.2465074992211</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,22 +27546,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.7999938050115</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>160.5291373140627</v>
       </c>
       <c r="I4" t="n">
-        <v>149.707018465407</v>
+        <v>149.7070184654069</v>
       </c>
       <c r="J4" t="n">
-        <v>79.85650148794934</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0804429799158406</v>
+        <v>0.08044297991525085</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.16960749893991</v>
+        <v>70.16960749893948</v>
       </c>
       <c r="R4" t="n">
-        <v>168.7059864012577</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>220.6882407100772</v>
+        <v>220.6882407100771</v>
       </c>
       <c r="T4" t="n">
-        <v>227.1295602453704</v>
+        <v>227.1295602453703</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3086119626665</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.0528067844064</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>84.14522136324946</v>
+        <v>69.88877197543657</v>
       </c>
       <c r="S5" t="n">
-        <v>170.9213294970789</v>
+        <v>185.1777788848918</v>
       </c>
       <c r="T5" t="n">
-        <v>218.5157232867786</v>
+        <v>204.2592738989657</v>
       </c>
       <c r="U5" t="n">
-        <v>237.0055004698378</v>
+        <v>251.2619498576507</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>364.0500657993949</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.40029062264185</v>
+        <v>51.14384123482895</v>
       </c>
       <c r="S6" t="n">
         <v>161.2848808488537</v>
       </c>
       <c r="T6" t="n">
-        <v>183.6518380450653</v>
+        <v>197.9082874328782</v>
       </c>
       <c r="U6" t="n">
         <v>225.9045522453609</v>
@@ -27755,13 +27755,13 @@
         <v>220.2435065286397</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>237.4385337731067</v>
       </c>
       <c r="X6" t="n">
         <v>191.5165358156646</v>
       </c>
       <c r="Y6" t="n">
-        <v>191.4262463894915</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.86215332931516</v>
+        <v>32.60570394150226</v>
       </c>
       <c r="R7" t="n">
-        <v>141.9342109551488</v>
+        <v>156.1906603429617</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5810270574537</v>
+        <v>203.280395824481</v>
       </c>
       <c r="T7" t="n">
-        <v>225.9402753186823</v>
+        <v>211.6838259308694</v>
       </c>
       <c r="U7" t="n">
-        <v>272.0369802140874</v>
+        <v>286.2934296019002</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>237.8811939360151</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.0275727313092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>207.1839806161446</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>114.8750934791784</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079609</v>
       </c>
       <c r="V8" t="n">
-        <v>87.94431032863031</v>
+        <v>136.322367434746</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759085</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>146.429990514549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>16.68372278569319</v>
       </c>
       <c r="Y9" t="n">
-        <v>108.3398844444287</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.2249529130456</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T10" t="n">
-        <v>120.0999508761031</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.45270651659239</v>
+        <v>46.45270651659244</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>46.71505019508641</v>
+        <v>46.71505019508646</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="C14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="D14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="E14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="F14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="G14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="H14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="T14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="U14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="V14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="W14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="X14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="C16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="D16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="E16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="F16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="G16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="H16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="I16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="K16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="L16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="M16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="N16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="O16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="P16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="R16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="S16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="T16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="U16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="V16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="W16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="X16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221427</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221497</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221611</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221487</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221446</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221487</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="41">
@@ -30475,10 +30475,10 @@
         <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221503</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605597</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4257695298413781</v>
+        <v>0.4257695298413894</v>
       </c>
       <c r="H2" t="n">
-        <v>4.360412197488015</v>
+        <v>4.360412197488131</v>
       </c>
       <c r="I2" t="n">
-        <v>16.41447979920974</v>
+        <v>16.41447979921018</v>
       </c>
       <c r="J2" t="n">
-        <v>36.1366566333747</v>
+        <v>36.13665663337566</v>
       </c>
       <c r="K2" t="n">
-        <v>54.15948083156024</v>
+        <v>54.15948083156168</v>
       </c>
       <c r="L2" t="n">
-        <v>67.18962508044334</v>
+        <v>67.18962508044513</v>
       </c>
       <c r="M2" t="n">
-        <v>74.76140395675993</v>
+        <v>74.76140395676192</v>
       </c>
       <c r="N2" t="n">
-        <v>75.97112163342176</v>
+        <v>75.97112163342378</v>
       </c>
       <c r="O2" t="n">
-        <v>71.73737587106154</v>
+        <v>71.73737587106346</v>
       </c>
       <c r="P2" t="n">
-        <v>61.22619060310252</v>
+        <v>61.22619060310414</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.97831931565815</v>
+        <v>45.97831931565938</v>
       </c>
       <c r="R2" t="n">
-        <v>26.74524522889849</v>
+        <v>26.7452452288992</v>
       </c>
       <c r="S2" t="n">
-        <v>9.702223161260413</v>
+        <v>9.702223161260671</v>
       </c>
       <c r="T2" t="n">
-        <v>1.863806116880634</v>
+        <v>1.863806116880683</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03406156238731024</v>
+        <v>0.03406156238731115</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2278067819335262</v>
+        <v>0.2278067819335323</v>
       </c>
       <c r="H3" t="n">
-        <v>2.20013392025274</v>
+        <v>2.200133920252799</v>
       </c>
       <c r="I3" t="n">
-        <v>7.843347535869214</v>
+        <v>7.843347535869423</v>
       </c>
       <c r="J3" t="n">
-        <v>21.52274512995653</v>
+        <v>21.5227451299571</v>
       </c>
       <c r="K3" t="n">
-        <v>36.78579951950279</v>
+        <v>36.78579951950376</v>
       </c>
       <c r="L3" t="n">
-        <v>49.46304710359306</v>
+        <v>49.46304710359437</v>
       </c>
       <c r="M3" t="n">
-        <v>57.72104294868336</v>
+        <v>57.7210429486849</v>
       </c>
       <c r="N3" t="n">
-        <v>59.24874720121128</v>
+        <v>59.24874720121285</v>
       </c>
       <c r="O3" t="n">
-        <v>54.20102850678946</v>
+        <v>54.2010285067909</v>
       </c>
       <c r="P3" t="n">
-        <v>43.50110382378011</v>
+        <v>43.50110382378126</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.07933588330415</v>
+        <v>29.07933588330493</v>
       </c>
       <c r="R3" t="n">
-        <v>14.14400353092543</v>
+        <v>14.14400353092581</v>
       </c>
       <c r="S3" t="n">
-        <v>4.231411059160012</v>
+        <v>4.231411059160125</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9182211956004847</v>
+        <v>0.9182211956005091</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01498728828510042</v>
+        <v>0.01498728828510081</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1909855534472904</v>
+        <v>0.1909855534472955</v>
       </c>
       <c r="H4" t="n">
-        <v>1.69803519337682</v>
+        <v>1.698035193376865</v>
       </c>
       <c r="I4" t="n">
-        <v>5.743456461851244</v>
+        <v>5.743456461851397</v>
       </c>
       <c r="J4" t="n">
-        <v>13.50267862872343</v>
+        <v>13.50267862872379</v>
       </c>
       <c r="K4" t="n">
-        <v>22.18904884596701</v>
+        <v>22.1890488459676</v>
       </c>
       <c r="L4" t="n">
-        <v>28.39434310069989</v>
+        <v>28.39434310070065</v>
       </c>
       <c r="M4" t="n">
-        <v>29.9378536190148</v>
+        <v>29.9378536190156</v>
       </c>
       <c r="N4" t="n">
-        <v>29.22599837434765</v>
+        <v>29.22599837434843</v>
       </c>
       <c r="O4" t="n">
-        <v>26.99493986362248</v>
+        <v>26.99493986362319</v>
       </c>
       <c r="P4" t="n">
-        <v>23.09883457329774</v>
+        <v>23.09883457329835</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.99243575275447</v>
+        <v>15.9924357527549</v>
       </c>
       <c r="R4" t="n">
-        <v>8.587404975911802</v>
+        <v>8.58740497591203</v>
       </c>
       <c r="S4" t="n">
-        <v>3.328357326895051</v>
+        <v>3.328357326895139</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8160291829111498</v>
+        <v>0.8160291829111714</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01041739382439767</v>
+        <v>0.01041739382439795</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I11" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L11" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R11" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S11" t="n">
         <v>117.0897208110796</v>
@@ -31832,10 +31832,10 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H12" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,25 +31844,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>357.5145194463138</v>
+        <v>357.5145194463146</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N12" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P12" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q12" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R12" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S12" t="n">
         <v>51.06610426486996</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H13" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I13" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J13" t="n">
         <v>162.9549067838146</v>
@@ -31923,31 +31923,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P13" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q13" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R13" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S13" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I14" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L14" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R14" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32069,10 +32069,10 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,25 +32081,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>357.5145194463138</v>
+        <v>357.5145194463146</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P15" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q15" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838146</v>
@@ -32160,31 +32160,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S16" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,10 +32306,10 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,25 +32318,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463138</v>
+        <v>357.5145194463146</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q18" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,10 +32543,10 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,25 +32555,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>457.174815018723</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q21" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>357.5145194463138</v>
       </c>
       <c r="M24" t="n">
-        <v>457.1748150187223</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407986</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155584</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>457.1748150187223</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>475.6116682468181</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I38" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L38" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R38" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33965,10 +33965,10 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,25 +33977,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>457.174815018723</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q39" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H40" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838146</v>
@@ -34056,31 +34056,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P40" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q40" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R40" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S40" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H41" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I41" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L41" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R41" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34202,37 +34202,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>356.8015786407986</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879669</v>
+        <v>151.0727449683551</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q42" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H43" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838146</v>
@@ -34293,31 +34293,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P43" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q43" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R43" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S43" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I44" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654306</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34439,37 +34439,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>356.8015786407994</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463138</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q45" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838146</v>
@@ -34530,31 +34530,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S46" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34942,10 +34942,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>13.68043123072954</v>
       </c>
       <c r="N5" t="n">
-        <v>13.68043123072954</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>14.25644938781289</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>14.25644938781289</v>
       </c>
       <c r="M7" t="n">
         <v>13.68043123072954</v>
@@ -35106,7 +35106,7 @@
         <v>14.25644938781289</v>
       </c>
       <c r="O7" t="n">
-        <v>14.25644938781289</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>14.25644938781289</v>
@@ -35270,7 +35270,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.75123316395896</v>
+        <v>89.75123316395873</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>41.57616651612491</v>
+        <v>41.57616651612468</v>
       </c>
       <c r="L10" t="n">
         <v>186.6999948493114</v>
@@ -35410,28 +35410,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N11" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P11" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R11" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9601396664397</v>
+        <v>218.9601396664405</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O12" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q12" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R12" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.59572666714186</v>
+        <v>69.59572666714183</v>
       </c>
       <c r="K13" t="n">
-        <v>245.5154777892838</v>
+        <v>245.5154777892837</v>
       </c>
       <c r="L13" t="n">
-        <v>370.2625912295209</v>
+        <v>370.2625912295208</v>
       </c>
       <c r="M13" t="n">
-        <v>400.8840515372959</v>
+        <v>400.8840515372958</v>
       </c>
       <c r="N13" t="n">
         <v>396.8414363488768</v>
       </c>
       <c r="O13" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386572</v>
       </c>
       <c r="P13" t="n">
         <v>276.0431317030919</v>
       </c>
       <c r="Q13" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P14" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440229</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>218.9601396664397</v>
+        <v>218.9601396664405</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.97610503319683</v>
+        <v>81.97610503319686</v>
       </c>
       <c r="K16" t="n">
         <v>257.8958561553387</v>
@@ -35823,7 +35823,7 @@
         <v>288.4235100691469</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.2204755779991</v>
+        <v>119.2204755779992</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348816</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9601396664397</v>
+        <v>218.9601396664405</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>315.0407810967047</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36294,7 +36294,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36358,7 +36358,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721828</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169878</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="M24" t="n">
-        <v>315.040781096704</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9601396664396</v>
+        <v>218.9601396664397</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36753,22 +36753,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664397</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>218.9601396664396</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356842</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>315.040781096704</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>344.2699561634848</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37543,28 +37543,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N38" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P38" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227516</v>
+        <v>332.576266822753</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>315.0407810967047</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
@@ -37780,28 +37780,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N41" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>218.9601396664396</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659486</v>
+        <v>8.938711046336739</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q42" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
@@ -37953,7 +37953,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.473903143468003e-13</v>
       </c>
       <c r="J44" t="n">
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>218.9601396664405</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664396</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q45" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
